--- a/interport/files/Scrum template.xlsx
+++ b/interport/files/Scrum template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\Desktop\Subjects\Y2\S2\IAB251\Assignment-2\repo\IAB251-A2\interport\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santorae/Desktop/IAB251-A2/interport/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285F0E1F-4E5A-408B-A9FB-F7CC01512290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8B0807-C5D9-1248-AE36-CB5C8A1C0675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="39836" windowHeight="16094" xr2:uid="{A2CDC62E-A7E6-4878-A43B-D18AEBCA3825}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{A2CDC62E-A7E6-4878-A43B-D18AEBCA3825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="33">
   <si>
     <t>NO.</t>
   </si>
@@ -66,21 +66,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>Document C not currently available</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
     <t>Week 11</t>
   </si>
   <si>
@@ -90,27 +75,9 @@
     <t>Week 13</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>User story T1</t>
-  </si>
-  <si>
     <t>coding started</t>
   </si>
   <si>
-    <t>initial design</t>
-  </si>
-  <si>
-    <t>Need input from Client</t>
-  </si>
-  <si>
     <t>Week 10</t>
   </si>
   <si>
@@ -124,6 +91,48 @@
   </si>
   <si>
     <t>n12029408 &amp; n12017035</t>
+  </si>
+  <si>
+    <t>Santo</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Researching Project Layout</t>
+  </si>
+  <si>
+    <t>Researching Bootstrap Classes and Structure</t>
+  </si>
+  <si>
+    <t>Create models for application</t>
+  </si>
+  <si>
+    <t>Start Creating Index UI page</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>Finsih off creating classes</t>
+  </si>
+  <si>
+    <t>Start creation of quotation requests UI for customer</t>
+  </si>
+  <si>
+    <t>Complete index ui page</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Get database initialised and setup in the project</t>
+  </si>
+  <si>
+    <t>researching</t>
   </si>
 </sst>
 </file>
@@ -339,17 +348,17 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,42 +370,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -450,62 +424,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF94EFFB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF94EFFB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -876,57 +794,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2AB796-4907-4887-9F8C-A827CF606D38}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.09765625" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" customWidth="1"/>
-    <col min="4" max="4" width="43.3984375" customWidth="1"/>
-    <col min="5" max="5" width="28.8984375" customWidth="1"/>
-    <col min="6" max="6" width="45.59765625" customWidth="1"/>
-    <col min="7" max="7" width="26.3984375" customWidth="1"/>
-    <col min="8" max="8" width="86.09765625" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="8" width="86.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="14"/>
+      <c r="B1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="17"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.3" x14ac:dyDescent="0.3">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.3" x14ac:dyDescent="0.3">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="21.9" x14ac:dyDescent="0.35">
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="23" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C4" s="13">
         <v>45915</v>
@@ -937,7 +855,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -960,51 +878,49 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
         <v>3</v>
       </c>
@@ -1012,104 +928,166 @@
         <v>20</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+    <row r="10" spans="1:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45929</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+      <c r="H11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="21.9" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C16" s="13">
-        <v>45929</v>
+        <v>45936</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1117,7 +1095,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
@@ -1140,428 +1118,351 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="8">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
+    <row r="22" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="13">
+        <v>45943</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="9"/>
       <c r="E25" s="8"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D26" s="9"/>
       <c r="E26" s="8"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="8">
+        <v>4</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8"/>
       <c r="F27" s="10"/>
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="2:8" ht="20.75" x14ac:dyDescent="0.35">
-      <c r="B28" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="13">
-        <v>45936</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="7" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="13">
+        <v>45950</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D31" s="9"/>
       <c r="E31" s="8"/>
       <c r="F31" s="10"/>
       <c r="G31" s="11"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="8"/>
       <c r="F32" s="10"/>
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D33" s="9"/>
       <c r="E33" s="8"/>
       <c r="F33" s="10"/>
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="8">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="8"/>
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="2:8" ht="23" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="13">
+        <v>45957</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="8">
-        <v>10</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D39" s="9"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" spans="2:8" ht="21.9" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="13">
-        <v>45943</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="7" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="8">
         <v>3</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="C40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="8">
         <v>4</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="8">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="8">
-        <v>2</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="8">
-        <v>3</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="8">
-        <v>4</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="8">
-        <v>5</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="8">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="8">
-        <v>7</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="8">
-        <v>8</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="8">
-        <v>9</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="8">
-        <v>10</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="2:8" ht="21.9" x14ac:dyDescent="0.35">
-      <c r="B52" s="4"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-    </row>
-    <row r="54" spans="2:8" ht="21.9" x14ac:dyDescent="0.35">
-      <c r="B54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C54" s="13">
-        <v>45950</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="8">
-        <v>1</v>
-      </c>
+      <c r="C41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="8"/>
@@ -1569,10 +1470,8 @@
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="8">
-        <v>2</v>
-      </c>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="8"/>
@@ -1580,10 +1479,8 @@
       <c r="G57" s="11"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B58" s="8">
-        <v>3</v>
-      </c>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="8"/>
@@ -1591,10 +1488,8 @@
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="8">
-        <v>4</v>
-      </c>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="8"/>
@@ -1602,10 +1497,8 @@
       <c r="G59" s="11"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B60" s="8">
-        <v>5</v>
-      </c>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="8"/>
@@ -1613,226 +1506,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B61" s="8">
-        <v>6</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B62" s="8">
-        <v>7</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="8">
-        <v>8</v>
-      </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B64" s="8">
-        <v>9</v>
-      </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B65" s="8">
-        <v>10</v>
-      </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="2:8" ht="21.9" x14ac:dyDescent="0.35">
-      <c r="B66" s="4"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-    </row>
-    <row r="68" spans="2:8" ht="21.9" x14ac:dyDescent="0.35">
-      <c r="B68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="13">
-        <v>45957</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="8">
-        <v>1</v>
-      </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="8">
-        <v>2</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B72" s="8">
-        <v>3</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="8">
-        <v>4</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B74" s="8">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B75" s="8">
-        <v>6</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B76" s="8">
-        <v>7</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="8">
-        <v>8</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="8">
-        <v>9</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="8">
-        <v>10</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="2:8" ht="21.9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" ht="23" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6"/>
@@ -1850,94 +1524,49 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6:B15 B18:B27 B30:B39 B42:B51 B56:B65">
-    <cfRule type="containsText" dxfId="25" priority="22" operator="containsText" text="Update">
+  <conditionalFormatting sqref="B6:B9 B24:B27 B31:B34 B55:B60 B38:B41 B18:B21 B12:B15">
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="Update">
       <formula>NOT(ISERROR(SEARCH("Update",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Task">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="Task">
       <formula>NOT(ISERROR(SEARCH("Task",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Content">
+    <cfRule type="containsText" dxfId="10" priority="24" operator="containsText" text="Content">
       <formula>NOT(ISERROR(SEARCH("Content",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Feature">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="Feature">
       <formula>NOT(ISERROR(SEARCH("Feature",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="Research">
+    <cfRule type="containsText" dxfId="8" priority="26" operator="containsText" text="Research">
       <formula>NOT(ISERROR(SEARCH("Research",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B70:B79">
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Update">
-      <formula>NOT(ISERROR(SEARCH("Update",B70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="Task">
-      <formula>NOT(ISERROR(SEARCH("Task",B70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Content">
-      <formula>NOT(ISERROR(SEARCH("Content",B70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Feature">
-      <formula>NOT(ISERROR(SEARCH("Feature",B70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="Research">
-      <formula>NOT(ISERROR(SEARCH("Research",B70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E15 E18:E27 E30:E39 E42:E51 E56:E65">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E6:E9 E12:E15 E24:E27 E31:E34 E18:E21 E55:E60 E38:E41">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:E79">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G15 G18:G27 G30:G39 G42:G51 G56:G65">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="Testing">
+  <conditionalFormatting sqref="G6:G9 G12:G15 G24:G27 G31:G34 G18:G21 G55:G60 G38:G41">
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="On Hold">
+    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text="On Hold">
       <formula>NOT(ISERROR(SEARCH("On Hold",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="19" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="2" priority="19" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="20" operator="containsText" text="Ready to Start">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="Ready to Start">
       <formula>NOT(ISERROR(SEARCH("Ready to Start",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="21" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="0" priority="21" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",G6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G70:G79">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Testing">
-      <formula>NOT(ISERROR(SEARCH("Testing",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="On Hold">
-      <formula>NOT(ISERROR(SEARCH("On Hold",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="Ready to Start">
-      <formula>NOT(ISERROR(SEARCH("Ready to Start",G70)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",G70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
